--- a/Schedule Calculator Pro/bin/База даних.xlsx
+++ b/Schedule Calculator Pro/bin/База даних.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979BF22B-DBC7-4EA6-A677-958C75BD7550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB540FD-B29B-4D3E-BC5E-81C9104100A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{6F807FD1-ABDE-4A99-B412-161ACF008F0D}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{73674B8B-1E13-4C3D-BACE-67CA550837CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,45 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="209">
   <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
+    <t>"01011000000101101000000111011011111"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи філософських знань </t>
+  </si>
+  <si>
+    <t>А20</t>
+  </si>
+  <si>
+    <t>Лг32</t>
+  </si>
+  <si>
+    <t>П33</t>
+  </si>
+  <si>
+    <t>С25</t>
+  </si>
+  <si>
+    <t>Ф25</t>
+  </si>
+  <si>
+    <t>Історія: Україна і світ</t>
+  </si>
+  <si>
+    <t>Ел21</t>
+  </si>
+  <si>
+    <t>Документальне забезпечення соціальної роботи</t>
+  </si>
+  <si>
+    <t>Історія України</t>
+  </si>
+  <si>
+    <t>Бенедицький В.Б.</t>
+  </si>
+  <si>
     <t>"11111111111111111111111111111111111"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основи філософських знань </t>
-  </si>
-  <si>
-    <t>А20</t>
-  </si>
-  <si>
-    <t>Лг32</t>
-  </si>
-  <si>
-    <t>П33</t>
-  </si>
-  <si>
-    <t>С25</t>
-  </si>
-  <si>
-    <t>Ф25</t>
-  </si>
-  <si>
-    <t>Історія: Україна і світ</t>
-  </si>
-  <si>
-    <t>Ел21</t>
-  </si>
-  <si>
-    <t>Документальне забезпечення соціальної роботи</t>
-  </si>
-  <si>
-    <t>Історія України</t>
-  </si>
-  <si>
-    <t>Бенедицький В.Б.</t>
   </si>
   <si>
     <t>Основи конструювання ЕОМ</t>
@@ -1006,12 +1009,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7503DC-1D01-469E-A491-FF326E481F50}">
-  <dimension ref="A1:M540"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB058B1-D891-4196-98B4-BA996BA35D0F}">
+  <dimension ref="A1:N540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1023,12 +1024,13 @@
     <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,31 +1040,31 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>122</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>3</v>
       </c>
@@ -1072,17 +1074,20 @@
       <c r="H3">
         <v>311</v>
       </c>
-      <c r="K3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>123</v>
       </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>4</v>
       </c>
@@ -1092,17 +1097,20 @@
       <c r="H4">
         <v>412</v>
       </c>
-      <c r="K4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>151</v>
       </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -1112,17 +1120,20 @@
       <c r="H5">
         <v>413</v>
       </c>
-      <c r="K5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>152</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -1132,48 +1143,54 @@
       <c r="H6">
         <v>411</v>
       </c>
-      <c r="K6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>153</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>154</v>
       </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>200</v>
       </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>3</v>
       </c>
@@ -1183,17 +1200,20 @@
       <c r="H9">
         <v>311</v>
       </c>
-      <c r="K9">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>201</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1203,17 +1223,20 @@
       <c r="H10">
         <v>106</v>
       </c>
-      <c r="K10">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>202</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>6</v>
       </c>
@@ -1223,48 +1246,54 @@
       <c r="H11">
         <v>411</v>
       </c>
-      <c r="K11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>203</v>
       </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>7</v>
       </c>
       <c r="G12">
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>204</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>206</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>6</v>
       </c>
@@ -1274,95 +1303,101 @@
       <c r="H14">
         <v>411</v>
       </c>
-      <c r="K14">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>208</v>
       </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>210</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
         <v>213</v>
       </c>
-      <c r="L16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
         <v>214</v>
       </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>215</v>
       </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
         <v>216</v>
       </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>48</v>
@@ -1370,33 +1405,36 @@
       <c r="H20">
         <v>105</v>
       </c>
-      <c r="K20">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>217</v>
       </c>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>218</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>17</v>
-      </c>
-      <c r="K21">
-        <v>218</v>
-      </c>
-      <c r="L21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>16</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -1404,92 +1442,98 @@
       <c r="H22">
         <v>105</v>
       </c>
-      <c r="K22">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>219</v>
       </c>
-      <c r="L22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
         <v>303</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>6</v>
       </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
         <v>304</v>
       </c>
-      <c r="L24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>306</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>308</v>
+      </c>
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="G25">
-        <v>16</v>
-      </c>
-      <c r="K25">
-        <v>306</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>308</v>
-      </c>
-      <c r="L26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27">
+      <c r="L27">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -1497,32 +1541,38 @@
       <c r="H28">
         <v>318</v>
       </c>
-      <c r="K28">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29">
         <v>16</v>
       </c>
-      <c r="K29">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>16</v>
@@ -1530,64 +1580,76 @@
       <c r="H31">
         <v>109</v>
       </c>
-      <c r="K31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>32</v>
       </c>
-      <c r="K33">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>9</v>
       </c>
@@ -1597,10 +1659,13 @@
       <c r="H39">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>16</v>
@@ -1608,18 +1673,24 @@
       <c r="H40">
         <v>109</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -1627,8 +1698,11 @@
       <c r="H42">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>6</v>
       </c>
@@ -1638,52 +1712,64 @@
       <c r="H43">
         <v>411</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>7</v>
       </c>
       <c r="G44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>32</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -1691,15 +1777,18 @@
       <c r="H50">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>16</v>
@@ -1707,13 +1796,16 @@
       <c r="H52">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>4</v>
       </c>
@@ -1723,47 +1815,59 @@
       <c r="H54">
         <v>412</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G57">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>16</v>
@@ -1771,15 +1875,18 @@
       <c r="H60">
         <v>305</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>16</v>
@@ -1787,10 +1894,13 @@
       <c r="H62">
         <v>409</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -1798,36 +1908,42 @@
       <c r="H63">
         <v>302</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G68">
         <v>16</v>
@@ -1835,31 +1951,40 @@
       <c r="H68">
         <v>318</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G69">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G72">
         <v>16</v>
@@ -1867,31 +1992,40 @@
       <c r="H72">
         <v>318</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
         <v>23</v>
-      </c>
-      <c r="G73">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
-        <v>22</v>
       </c>
       <c r="G76">
         <v>16</v>
@@ -1899,31 +2033,40 @@
       <c r="H76">
         <v>318</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G77">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G80">
         <v>16</v>
@@ -1931,23 +2074,26 @@
       <c r="H80">
         <v>301</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83">
         <v>16</v>
@@ -1955,26 +2101,35 @@
       <c r="H83">
         <v>318</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>32</v>
@@ -1982,10 +2137,13 @@
       <c r="H86">
         <v>305</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G87">
         <v>16</v>
@@ -1993,10 +2151,13 @@
       <c r="H87">
         <v>409</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G88">
         <v>16</v>
@@ -2004,15 +2165,18 @@
       <c r="H88">
         <v>302</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90">
         <v>32</v>
@@ -2020,26 +2184,35 @@
       <c r="H90">
         <v>318</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>16</v>
@@ -2047,10 +2220,13 @@
       <c r="H93">
         <v>305</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>16</v>
@@ -2058,10 +2234,13 @@
       <c r="H94">
         <v>409</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>16</v>
@@ -2069,23 +2248,26 @@
       <c r="H95">
         <v>302</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98">
         <v>16</v>
@@ -2093,8 +2275,11 @@
       <c r="H98">
         <v>318</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
         <v>3</v>
       </c>
@@ -2104,18 +2289,24 @@
       <c r="H99">
         <v>311</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G101">
         <v>16</v>
@@ -2123,18 +2314,24 @@
       <c r="H101">
         <v>109</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>32</v>
@@ -2142,10 +2339,13 @@
       <c r="H103">
         <v>409</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>16</v>
@@ -2153,23 +2353,29 @@
       <c r="H104">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
         <v>7</v>
       </c>
       <c r="G105">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G107">
         <v>48</v>
@@ -2177,10 +2383,13 @@
       <c r="H107">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>32</v>
@@ -2188,21 +2397,24 @@
       <c r="H108">
         <v>302</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>3</v>
       </c>
@@ -2212,13 +2424,16 @@
       <c r="H111">
         <v>311</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
         <v>9</v>
       </c>
@@ -2228,13 +2443,16 @@
       <c r="H113">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>4</v>
       </c>
@@ -2244,28 +2462,34 @@
       <c r="H115">
         <v>412</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G119">
         <v>16</v>
@@ -2273,29 +2497,35 @@
       <c r="H119">
         <v>319</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
         <v>5</v>
       </c>
@@ -2305,23 +2535,26 @@
       <c r="H123">
         <v>413</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G126">
         <v>32</v>
@@ -2329,15 +2562,18 @@
       <c r="H126">
         <v>717</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F128" t="s">
-        <v>69</v>
       </c>
       <c r="G128">
         <v>16</v>
@@ -2345,15 +2581,18 @@
       <c r="H128">
         <v>717</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G130">
         <v>32</v>
@@ -2361,21 +2600,24 @@
       <c r="H130">
         <v>105</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
         <v>4</v>
       </c>
@@ -2385,10 +2627,13 @@
       <c r="H133">
         <v>412</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G134">
         <v>32</v>
@@ -2396,15 +2641,18 @@
       <c r="H134">
         <v>410</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G136">
         <v>32</v>
@@ -2412,15 +2660,18 @@
       <c r="H136">
         <v>319</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G138">
         <v>32</v>
@@ -2428,15 +2679,18 @@
       <c r="H138">
         <v>319</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G140">
         <v>32</v>
@@ -2444,47 +2698,59 @@
       <c r="H140">
         <v>319</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G143">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G144">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>16</v>
@@ -2492,39 +2758,48 @@
       <c r="H146">
         <v>305</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>16</v>
@@ -2532,13 +2807,16 @@
       <c r="H151">
         <v>305</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2826,11 @@
       <c r="H153">
         <v>311</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
         <v>9</v>
       </c>
@@ -2559,10 +2840,13 @@
       <c r="H154">
         <v>106</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G155">
         <v>16</v>
@@ -2570,10 +2854,13 @@
       <c r="H155">
         <v>109</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>16</v>
@@ -2581,8 +2868,11 @@
       <c r="H156">
         <v>111</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
         <v>6</v>
       </c>
@@ -2592,15 +2882,18 @@
       <c r="H157">
         <v>411</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G159">
         <v>8</v>
@@ -2608,49 +2901,61 @@
       <c r="H159">
         <v>109</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G161">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G162">
         <v>32</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G166">
         <v>48</v>
@@ -2658,40 +2963,49 @@
       <c r="H166">
         <v>105</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E168" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G169">
         <v>32</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>32</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
         <v>4</v>
       </c>
@@ -2701,18 +3015,24 @@
       <c r="H171">
         <v>412</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G172">
         <v>32</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>32</v>
@@ -2720,8 +3040,11 @@
       <c r="H173">
         <v>302</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
         <v>5</v>
       </c>
@@ -2731,10 +3054,13 @@
       <c r="H174">
         <v>413</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G175">
         <v>32</v>
@@ -2742,23 +3068,26 @@
       <c r="H175">
         <v>410</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G178">
         <v>16</v>
@@ -2766,15 +3095,18 @@
       <c r="H178">
         <v>301</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G180">
         <v>32</v>
@@ -2782,23 +3114,26 @@
       <c r="H180">
         <v>717</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G183">
         <v>16</v>
@@ -2806,15 +3141,18 @@
       <c r="H183">
         <v>301</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G185">
         <v>16</v>
@@ -2822,34 +3160,40 @@
       <c r="H185">
         <v>301</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
         <v>7</v>
       </c>
       <c r="G188">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
         <v>6</v>
       </c>
@@ -2859,23 +3203,29 @@
       <c r="H190">
         <v>411</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
         <v>7</v>
       </c>
       <c r="G191">
         <v>32</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G193">
         <v>16</v>
@@ -2883,21 +3233,24 @@
       <c r="H193">
         <v>717</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
         <v>4</v>
       </c>
@@ -2907,23 +3260,26 @@
       <c r="H196">
         <v>412</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>16</v>
@@ -2931,36 +3287,42 @@
       <c r="H199">
         <v>111</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G202">
         <v>32</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G204">
         <v>32</v>
@@ -2968,94 +3330,109 @@
       <c r="H204">
         <v>319</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B205">
         <v>117</v>
       </c>
       <c r="C205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>48</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G209">
         <v>32</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G211">
         <v>32</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G213">
         <v>48</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G217">
         <v>16</v>
@@ -3063,26 +3440,35 @@
       <c r="H217">
         <v>318</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G218">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G219">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>16</v>
@@ -3090,15 +3476,18 @@
       <c r="H220">
         <v>305</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G222">
         <v>16</v>
@@ -3106,16 +3495,22 @@
       <c r="H222">
         <v>318</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G223">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F224" t="s">
         <v>9</v>
       </c>
@@ -3125,18 +3520,24 @@
       <c r="H224">
         <v>106</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G225">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G226">
         <v>16</v>
@@ -3144,10 +3545,13 @@
       <c r="H226">
         <v>111</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G227">
         <v>16</v>
@@ -3155,10 +3559,13 @@
       <c r="H227">
         <v>305</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G228">
         <v>16</v>
@@ -3166,8 +3573,11 @@
       <c r="H228">
         <v>302</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
         <v>6</v>
       </c>
@@ -3177,15 +3587,18 @@
       <c r="H229">
         <v>411</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>32</v>
@@ -3193,24 +3606,27 @@
       <c r="H231">
         <v>302</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E233">
         <v>311</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
         <v>3</v>
       </c>
@@ -3220,81 +3636,99 @@
       <c r="H234">
         <v>311</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G235">
         <v>32</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G237">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>32</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G241">
         <v>32</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G243">
         <v>16</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F246" t="s">
         <v>6</v>
       </c>
@@ -3304,13 +3738,16 @@
       <c r="H246">
         <v>411</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
         <v>4</v>
       </c>
@@ -3320,10 +3757,13 @@
       <c r="H248">
         <v>412</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G249">
         <v>16</v>
@@ -3331,10 +3771,13 @@
       <c r="H249">
         <v>301</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G250">
         <v>16</v>
@@ -3342,15 +3785,18 @@
       <c r="H250">
         <v>410</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G252">
         <v>16</v>
@@ -3358,13 +3804,16 @@
       <c r="H252">
         <v>301</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F254" t="s">
         <v>6</v>
       </c>
@@ -3374,21 +3823,24 @@
       <c r="H254">
         <v>411</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
         <v>5</v>
       </c>
@@ -3398,23 +3850,26 @@
       <c r="H257">
         <v>413</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F260" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G260">
         <v>16</v>
@@ -3422,15 +3877,18 @@
       <c r="H260">
         <v>410</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F262" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G262">
         <v>32</v>
@@ -3438,15 +3896,18 @@
       <c r="H262">
         <v>410</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F264" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G264">
         <v>32</v>
@@ -3454,15 +3915,18 @@
       <c r="H264">
         <v>410</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F266" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G266">
         <v>32</v>
@@ -3470,15 +3934,18 @@
       <c r="H266">
         <v>410</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F268" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G268">
         <v>16</v>
@@ -3486,15 +3953,18 @@
       <c r="H268">
         <v>410</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F270" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G270">
         <v>16</v>
@@ -3502,15 +3972,18 @@
       <c r="H270">
         <v>410</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F272" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G272">
         <v>32</v>
@@ -3518,23 +3991,26 @@
       <c r="H272">
         <v>410</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C273" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F275" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G275">
         <v>16</v>
@@ -3542,16 +4018,22 @@
       <c r="H275">
         <v>109</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G276">
         <v>16</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F277" t="s">
         <v>5</v>
       </c>
@@ -3561,36 +4043,42 @@
       <c r="H277">
         <v>413</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G279">
         <v>16</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C280" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F282" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G282">
         <v>16</v>
@@ -3598,23 +4086,26 @@
       <c r="H282">
         <v>301</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C283" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G285">
         <v>16</v>
@@ -3622,34 +4113,46 @@
       <c r="H285">
         <v>318</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F286" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G286">
         <v>16</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F287" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G287">
         <v>16</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F288" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G288">
         <v>16</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F289" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G289">
         <v>16</v>
@@ -3657,39 +4160,48 @@
       <c r="H289">
         <v>305</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C290" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G292">
         <v>16</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F293" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G293">
         <v>16</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G294">
         <v>16</v>
@@ -3697,31 +4209,40 @@
       <c r="H294">
         <v>305</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F296" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G296">
         <v>16</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F297" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G297">
         <v>16</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F298" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G298">
         <v>16</v>
@@ -3729,13 +4250,16 @@
       <c r="H298">
         <v>305</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F300" t="s">
         <v>3</v>
       </c>
@@ -3745,10 +4269,13 @@
       <c r="H300">
         <v>311</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F301" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G301">
         <v>16</v>
@@ -3756,10 +4283,13 @@
       <c r="H301">
         <v>109</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F302" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G302">
         <v>16</v>
@@ -3767,10 +4297,13 @@
       <c r="H302">
         <v>111</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G303">
         <v>16</v>
@@ -3778,10 +4311,13 @@
       <c r="H303">
         <v>409</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F304" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G304">
         <v>16</v>
@@ -3789,58 +4325,73 @@
       <c r="H304">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C305" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E306" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G307">
         <v>32</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F308" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G308">
         <v>32</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F309" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G309">
         <v>32</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F310" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G310">
         <v>32</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F311" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G311">
         <v>16</v>
@@ -3848,10 +4399,13 @@
       <c r="H311">
         <v>109</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F312" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G312">
         <v>32</v>
@@ -3859,10 +4413,13 @@
       <c r="H312">
         <v>105</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F313" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G313">
         <v>32</v>
@@ -3870,10 +4427,13 @@
       <c r="H313">
         <v>111</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F314" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G314">
         <v>32</v>
@@ -3881,10 +4441,13 @@
       <c r="H314">
         <v>319</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F315" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G315">
         <v>32</v>
@@ -3892,29 +4455,35 @@
       <c r="H315">
         <v>717</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F316" t="s">
         <v>7</v>
       </c>
       <c r="G316">
         <v>32</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C317" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F319" t="s">
         <v>6</v>
       </c>
@@ -3924,13 +4493,16 @@
       <c r="H319">
         <v>411</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F321" t="s">
         <v>6</v>
       </c>
@@ -3940,10 +4512,13 @@
       <c r="H321">
         <v>411</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F322" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G322">
         <v>16</v>
@@ -3951,15 +4526,18 @@
       <c r="H322">
         <v>301</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F324" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G324">
         <v>16</v>
@@ -3967,15 +4545,18 @@
       <c r="H324">
         <v>301</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F326" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G326">
         <v>16</v>
@@ -3983,44 +4564,50 @@
       <c r="H326">
         <v>301</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C327" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F329" t="s">
         <v>7</v>
       </c>
       <c r="G329">
         <v>32</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C330" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F332" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G332">
         <v>32</v>
@@ -4028,8 +4615,11 @@
       <c r="H332">
         <v>318</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F333" t="s">
         <v>3</v>
       </c>
@@ -4039,26 +4629,35 @@
       <c r="H333">
         <v>311</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F334" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G334">
         <v>16</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F335" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G335">
         <v>32</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F336" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G336">
         <v>32</v>
@@ -4066,8 +4665,11 @@
       <c r="H336">
         <v>409</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
         <v>6</v>
       </c>
@@ -4077,60 +4679,75 @@
       <c r="H337">
         <v>411</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F338" t="s">
         <v>7</v>
       </c>
       <c r="G338">
         <v>16</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>151</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F341" t="s">
+        <v>42</v>
+      </c>
+      <c r="G341">
+        <v>16</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F342" t="s">
+        <v>21</v>
+      </c>
+      <c r="G342">
+        <v>16</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
         <v>150</v>
       </c>
-      <c r="C339" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D340" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F341" t="s">
-        <v>41</v>
-      </c>
-      <c r="G341">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F342" t="s">
-        <v>20</v>
-      </c>
-      <c r="G342">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F344" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G344">
         <v>32</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G345">
         <v>32</v>
@@ -4138,21 +4755,27 @@
       <c r="H345">
         <v>109</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F346" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G346">
         <v>16</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F348" t="s">
         <v>5</v>
       </c>
@@ -4162,13 +4785,16 @@
       <c r="H348">
         <v>413</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F350" t="s">
         <v>5</v>
       </c>
@@ -4178,13 +4804,16 @@
       <c r="H350">
         <v>413</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F352" t="s">
         <v>5</v>
       </c>
@@ -4194,60 +4823,69 @@
       <c r="H352">
         <v>413</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C353" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F355" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G355">
         <v>64</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F357" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G357">
         <v>48</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C358" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E359" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F360" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G360">
         <v>32</v>
@@ -4255,8 +4893,11 @@
       <c r="H360">
         <v>318</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F361" t="s">
         <v>3</v>
       </c>
@@ -4266,16 +4907,22 @@
       <c r="H361">
         <v>311</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F362" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G362">
         <v>32</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F363" t="s">
         <v>9</v>
       </c>
@@ -4285,18 +4932,24 @@
       <c r="H363">
         <v>106</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F364" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G364">
         <v>32</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F365" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G365">
         <v>32</v>
@@ -4304,10 +4957,13 @@
       <c r="H365">
         <v>305</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F366" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G366">
         <v>32</v>
@@ -4315,10 +4971,13 @@
       <c r="H366">
         <v>409</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F367" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G367">
         <v>32</v>
@@ -4326,31 +4985,37 @@
       <c r="H367">
         <v>301</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F368" t="s">
         <v>7</v>
       </c>
       <c r="G368">
         <v>32</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C369" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F371" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G371">
         <v>16</v>
@@ -4358,42 +5023,57 @@
       <c r="H371">
         <v>318</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F372" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G372">
         <v>16</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F373" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G373">
         <v>16</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F374" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G374">
         <v>16</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F375" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G375">
         <v>16</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F376" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G376">
         <v>16</v>
@@ -4401,23 +5081,26 @@
       <c r="H376">
         <v>305</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C377" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G379">
         <v>32</v>
@@ -4425,8 +5108,11 @@
       <c r="H379">
         <v>318</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F380" t="s">
         <v>3</v>
       </c>
@@ -4436,16 +5122,22 @@
       <c r="H380">
         <v>311</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F381" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G381">
         <v>32</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F382" t="s">
         <v>9</v>
       </c>
@@ -4455,18 +5147,24 @@
       <c r="H382">
         <v>106</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F383" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G383">
         <v>32</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F384" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G384">
         <v>16</v>
@@ -4474,18 +5172,24 @@
       <c r="H384">
         <v>109</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F385" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G385">
         <v>32</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F386" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G386">
         <v>16</v>
@@ -4493,31 +5197,37 @@
       <c r="H386">
         <v>111</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F387" t="s">
         <v>7</v>
       </c>
       <c r="G387">
         <v>16</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C388" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F390" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G390">
         <v>16</v>
@@ -4525,10 +5235,13 @@
       <c r="H390">
         <v>109</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F391" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G391">
         <v>32</v>
@@ -4536,15 +5249,18 @@
       <c r="H391">
         <v>717</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F393" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G393">
         <v>8</v>
@@ -4552,41 +5268,50 @@
       <c r="H393">
         <v>109</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F395" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G395">
         <v>16</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F397" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G397">
         <v>32</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F399" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G399">
         <v>32</v>
@@ -4594,15 +5319,18 @@
       <c r="H399">
         <v>717</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F401" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G401">
         <v>32</v>
@@ -4610,15 +5338,18 @@
       <c r="H401">
         <v>105</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F403" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G403">
         <v>16</v>
@@ -4626,23 +5357,26 @@
       <c r="H403">
         <v>105</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C404" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F406" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G406">
         <v>32</v>
@@ -4650,26 +5384,29 @@
       <c r="H406">
         <v>717</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C407" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E408">
         <v>416</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F409" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G409">
         <v>16</v>
@@ -4677,8 +5414,11 @@
       <c r="H409">
         <v>318</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F410" t="s">
         <v>3</v>
       </c>
@@ -4688,16 +5428,22 @@
       <c r="H410">
         <v>311</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F411" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G411">
         <v>16</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F412" t="s">
         <v>9</v>
       </c>
@@ -4707,18 +5453,24 @@
       <c r="H412">
         <v>106</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F413" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G413">
         <v>16</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F414" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G414">
         <v>16</v>
@@ -4726,18 +5478,24 @@
       <c r="H414">
         <v>109</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F415" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G415">
         <v>16</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F416" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G416">
         <v>16</v>
@@ -4745,37 +5503,49 @@
       <c r="H416">
         <v>111</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F417" t="s">
         <v>7</v>
       </c>
       <c r="G417">
         <v>16</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F419" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G419">
         <v>16</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F420" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G420">
         <v>16</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F421" t="s">
         <v>4</v>
       </c>
@@ -4785,23 +5555,26 @@
       <c r="H421">
         <v>412</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C422" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F424" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G424">
         <v>16</v>
@@ -4809,10 +5582,13 @@
       <c r="H424">
         <v>409</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F425" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G425">
         <v>32</v>
@@ -4820,15 +5596,18 @@
       <c r="H425">
         <v>302</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F427" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G427">
         <v>16</v>
@@ -4836,10 +5615,13 @@
       <c r="H427">
         <v>409</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F428" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G428">
         <v>16</v>
@@ -4847,42 +5629,51 @@
       <c r="H428">
         <v>302</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F430" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G430">
         <v>32</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C431" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F433" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G433">
         <v>32</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F434" t="s">
         <v>9</v>
       </c>
@@ -4892,10 +5683,13 @@
       <c r="H434">
         <v>106</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F435" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G435">
         <v>32</v>
@@ -4903,10 +5697,13 @@
       <c r="H435">
         <v>111</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F436" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G436">
         <v>32</v>
@@ -4914,10 +5711,13 @@
       <c r="H436">
         <v>305</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F437" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G437">
         <v>32</v>
@@ -4925,39 +5725,45 @@
       <c r="H437">
         <v>302</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F439" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G439">
         <v>16</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C440" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E441">
         <v>405</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F442" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G442">
         <v>16</v>
@@ -4965,8 +5771,11 @@
       <c r="H442">
         <v>318</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F443" t="s">
         <v>3</v>
       </c>
@@ -4976,16 +5785,22 @@
       <c r="H443">
         <v>311</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F444" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G444">
         <v>16</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F445" t="s">
         <v>9</v>
       </c>
@@ -4995,18 +5810,24 @@
       <c r="H445">
         <v>106</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F446" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G446">
         <v>16</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F447" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G447">
         <v>16</v>
@@ -5014,18 +5835,24 @@
       <c r="H447">
         <v>109</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F448" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G448">
         <v>16</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F449" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G449">
         <v>16</v>
@@ -5033,18 +5860,24 @@
       <c r="H449">
         <v>111</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F450" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G450">
         <v>16</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F451" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G451">
         <v>16</v>
@@ -5052,10 +5885,13 @@
       <c r="H451">
         <v>305</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F452" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G452">
         <v>16</v>
@@ -5063,10 +5899,13 @@
       <c r="H452">
         <v>409</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F453" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G453">
         <v>16</v>
@@ -5074,34 +5913,40 @@
       <c r="H453">
         <v>302</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F454" t="s">
         <v>7</v>
       </c>
       <c r="G454">
         <v>16</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C455" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E456">
         <v>108</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F457" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G457">
         <v>16</v>
@@ -5109,42 +5954,57 @@
       <c r="H457">
         <v>318</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F458" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G458">
         <v>16</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F459" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G459">
         <v>16</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F460" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G460">
         <v>16</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F461" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G461">
         <v>16</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F462" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G462">
         <v>16</v>
@@ -5152,45 +6012,51 @@
       <c r="H462">
         <v>305</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C463" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F465" t="s">
         <v>7</v>
       </c>
       <c r="G465">
         <v>32</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C466" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E467">
         <v>104</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F468" t="s">
         <v>3</v>
       </c>
@@ -5200,16 +6066,22 @@
       <c r="H468">
         <v>311</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F469" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G469">
         <v>32</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F470" t="s">
         <v>5</v>
       </c>
@@ -5219,13 +6091,16 @@
       <c r="H470">
         <v>413</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F472" t="s">
         <v>5</v>
       </c>
@@ -5235,26 +6110,29 @@
       <c r="H472">
         <v>413</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C473" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E474">
         <v>416</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F475" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G475">
         <v>16</v>
@@ -5262,18 +6140,24 @@
       <c r="H475">
         <v>109</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F476" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G476">
         <v>16</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F477" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G477">
         <v>16</v>
@@ -5281,18 +6165,24 @@
       <c r="H477">
         <v>111</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F478" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G478">
         <v>16</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F479" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G479">
         <v>16</v>
@@ -5300,8 +6190,11 @@
       <c r="H479">
         <v>305</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F480" t="s">
         <v>5</v>
       </c>
@@ -5311,10 +6204,13 @@
       <c r="H480">
         <v>413</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F481" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G481">
         <v>16</v>
@@ -5322,10 +6218,13 @@
       <c r="H481">
         <v>717</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F482" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G482">
         <v>16</v>
@@ -5333,13 +6232,16 @@
       <c r="H482">
         <v>301</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F484" t="s">
         <v>4</v>
       </c>
@@ -5349,10 +6251,13 @@
       <c r="H484">
         <v>412</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F485" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G485">
         <v>16</v>
@@ -5360,21 +6265,24 @@
       <c r="H485">
         <v>410</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C486" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D487" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F488" t="s">
         <v>9</v>
       </c>
@@ -5384,47 +6292,56 @@
       <c r="H488">
         <v>106</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D489" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F490" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G490">
         <v>64</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D491" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F492" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G492">
         <v>32</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C493" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D494" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F495" t="s">
         <v>5</v>
       </c>
@@ -5434,28 +6351,34 @@
       <c r="H495">
         <v>413</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D496" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F497" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G497">
         <v>16</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D498" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F499" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G499">
         <v>32</v>
@@ -5463,21 +6386,24 @@
       <c r="H499">
         <v>717</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C500" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D501" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F502" t="s">
         <v>3</v>
       </c>
@@ -5487,16 +6413,19 @@
       <c r="H502">
         <v>311</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D503" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E503">
         <v>211</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F504" t="s">
         <v>9</v>
       </c>
@@ -5506,15 +6435,18 @@
       <c r="H504">
         <v>106</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D505" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F506" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G506">
         <v>16</v>
@@ -5522,15 +6454,18 @@
       <c r="H506">
         <v>111</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D507" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F508" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G508">
         <v>32</v>
@@ -5538,31 +6473,40 @@
       <c r="H508">
         <v>111</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D509" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F510" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G510">
         <v>16</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F511" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G511">
         <v>16</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F512" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G512">
         <v>16</v>
@@ -5570,39 +6514,45 @@
       <c r="H512">
         <v>301</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C513" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D514" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F515" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G515">
         <v>16</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E516">
         <v>416</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F517" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G517">
         <v>16</v>
@@ -5610,50 +6560,68 @@
       <c r="H517">
         <v>318</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F518" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G518">
         <v>16</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F519" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G519">
         <v>16</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F520" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G520">
         <v>16</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F521" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G521">
         <v>16</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F522" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G522">
         <v>16</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F523" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G523">
         <v>16</v>
@@ -5661,10 +6629,13 @@
       <c r="H523">
         <v>305</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F524" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G524">
         <v>16</v>
@@ -5672,10 +6643,13 @@
       <c r="H524">
         <v>409</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F525" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G525">
         <v>16</v>
@@ -5683,8 +6657,11 @@
       <c r="H525">
         <v>302</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F526" t="s">
         <v>5</v>
       </c>
@@ -5694,10 +6671,13 @@
       <c r="H526">
         <v>413</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F527" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G527">
         <v>16</v>
@@ -5705,15 +6685,18 @@
       <c r="H527">
         <v>717</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D528" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F529" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G529">
         <v>16</v>
@@ -5721,24 +6704,27 @@
       <c r="H529">
         <v>105</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C530" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D531" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E531">
         <v>106</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F532" t="s">
         <v>3</v>
       </c>
@@ -5748,16 +6734,22 @@
       <c r="H532">
         <v>311</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F533" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G533">
         <v>16</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F534" t="s">
         <v>9</v>
       </c>
@@ -5767,13 +6759,16 @@
       <c r="H534">
         <v>106</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D535" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F536" t="s">
         <v>4</v>
       </c>
@@ -5783,15 +6778,18 @@
       <c r="H536">
         <v>412</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D537" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F538" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G538">
         <v>32</v>
@@ -5799,21 +6797,27 @@
       <c r="H538">
         <v>319</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D539" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F540" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G540">
         <v>32</v>
       </c>
       <c r="H540">
         <v>319</v>
+      </c>
+      <c r="I540">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
